--- a/biology/Zoologie/Grandidierina_lineata/Grandidierina_lineata.xlsx
+++ b/biology/Zoologie/Grandidierina_lineata/Grandidierina_lineata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandidierina lineata est une espèce de sauriens de la famille des Scincidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandidierina lineata est une espèce de sauriens de la famille des Scincidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud de Madagascar[1],[2]. Elle se rencontre de la région de la Forêt des Mikea à Petriky dans les régions d'Atsimo-Andrefana, d'Androy et d'Anosy entre le niveau de la mer et 320 m d'altitude.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud de Madagascar,. Elle se rencontre de la région de la Forêt des Mikea à Petriky dans les régions d'Atsimo-Andrefana, d'Androy et d'Anosy entre le niveau de la mer et 320 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un animal aveugle, sans oreille et apode (dont les pattes sont atrophiées), une adaptation à son mode de vie fouisseur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un animal aveugle, sans oreille et apode (dont les pattes sont atrophiées), une adaptation à son mode de vie fouisseur.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique lineata vient du latin lineatus, rayé, en référence à l'aspect de ce saurien[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique lineata vient du latin lineatus, rayé, en référence à l'aspect de ce saurien.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mocquard, 1901 : Note préliminaire sur une collection de reptiles et de batraciens recueillis par M. Alluaud dans le sud de Madagascar. Bulletin du Muséum national d'histoire naturelle, vol. 7, p. 251-256 (texte intégral).</t>
         </is>
